--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H2">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I2">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J2">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>265.4833128207638</v>
+        <v>218.505038147552</v>
       </c>
       <c r="R2">
-        <v>2389.349815386875</v>
+        <v>1966.545343327968</v>
       </c>
       <c r="S2">
-        <v>0.2377594309272804</v>
+        <v>0.1869829563608711</v>
       </c>
       <c r="T2">
-        <v>0.2377594309272803</v>
+        <v>0.1869829563608711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H3">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I3">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J3">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>3.831419945079332</v>
+        <v>3.668460531424</v>
       </c>
       <c r="R3">
-        <v>34.48277950571399</v>
+        <v>33.016144782816</v>
       </c>
       <c r="S3">
-        <v>0.003431312560125047</v>
+        <v>0.003139239265483805</v>
       </c>
       <c r="T3">
-        <v>0.003431312560125046</v>
+        <v>0.003139239265483805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H4">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I4">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J4">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>2.873641314770333</v>
+        <v>4.347374005727999</v>
       </c>
       <c r="R4">
-        <v>25.862771832933</v>
+        <v>39.126366051552</v>
       </c>
       <c r="S4">
-        <v>0.002573552802357073</v>
+        <v>0.003720210988675234</v>
       </c>
       <c r="T4">
-        <v>0.002573552802357072</v>
+        <v>0.003720210988675234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H5">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I5">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J5">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>1.343936176230111</v>
+        <v>0.4667140224586666</v>
       </c>
       <c r="R5">
-        <v>12.095425586071</v>
+        <v>4.200426202128</v>
       </c>
       <c r="S5">
-        <v>0.001203591657298564</v>
+        <v>0.0003993846935257643</v>
       </c>
       <c r="T5">
-        <v>0.001203591657298564</v>
+        <v>0.0003993846935257643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.54238433333333</v>
+        <v>29.243344</v>
       </c>
       <c r="H6">
-        <v>91.62715299999999</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I6">
-        <v>0.3007947574010637</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J6">
-        <v>0.3007947574010637</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>62.33654828856833</v>
+        <v>62.75292147390932</v>
       </c>
       <c r="R6">
-        <v>561.0289345971149</v>
+        <v>564.7762932651839</v>
       </c>
       <c r="S6">
-        <v>0.05582686945400268</v>
+        <v>0.05370002850712126</v>
       </c>
       <c r="T6">
-        <v>0.05582686945400266</v>
+        <v>0.05370002850712127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.55382266666667</v>
+        <v>29.243344</v>
       </c>
       <c r="H7">
-        <v>64.661468</v>
+        <v>87.73003199999999</v>
       </c>
       <c r="I7">
-        <v>0.2122714713209156</v>
+        <v>0.24951600227194</v>
       </c>
       <c r="J7">
-        <v>0.2122714713209156</v>
+        <v>0.2495160022719401</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>187.3521131502777</v>
+        <v>1.839562302101333</v>
       </c>
       <c r="R7">
-        <v>1686.1690183525</v>
+        <v>16.556060718912</v>
       </c>
       <c r="S7">
-        <v>0.1677873133808114</v>
+        <v>0.001574182456262832</v>
       </c>
       <c r="T7">
-        <v>0.1677873133808113</v>
+        <v>0.001574182456262832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H8">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I8">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J8">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>2.703840838242666</v>
+        <v>296.6009219959587</v>
       </c>
       <c r="R8">
-        <v>24.334567544184</v>
+        <v>2669.408297963628</v>
       </c>
       <c r="S8">
-        <v>0.002421484243917562</v>
+        <v>0.2538125332227532</v>
       </c>
       <c r="T8">
-        <v>0.002421484243917562</v>
+        <v>0.2538125332227532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H9">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I9">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J9">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>2.027934513238667</v>
+        <v>4.979604979137334</v>
       </c>
       <c r="R9">
-        <v>18.251410619148</v>
+        <v>44.816444812236</v>
       </c>
       <c r="S9">
-        <v>0.001816161440440283</v>
+        <v>0.004261234744984045</v>
       </c>
       <c r="T9">
-        <v>0.001816161440440283</v>
+        <v>0.004261234744984045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H10">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I10">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J10">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>0.9484184895862221</v>
+        <v>5.901168912588</v>
       </c>
       <c r="R10">
-        <v>8.535766406275998</v>
+        <v>53.110520213292</v>
       </c>
       <c r="S10">
-        <v>0.0008493770774857327</v>
+        <v>0.005049851566879916</v>
       </c>
       <c r="T10">
-        <v>0.0008493770774857326</v>
+        <v>0.005049851566879916</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.55382266666667</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H11">
-        <v>64.661468</v>
+        <v>119.085622</v>
       </c>
       <c r="I11">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J11">
-        <v>0.2122714713209156</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>43.99102875532667</v>
+        <v>0.6335222773042223</v>
       </c>
       <c r="R11">
-        <v>395.91925879794</v>
+        <v>5.701700495738</v>
       </c>
       <c r="S11">
-        <v>0.03939713517826066</v>
+        <v>0.0005421287734831217</v>
       </c>
       <c r="T11">
-        <v>0.03939713517826066</v>
+        <v>0.0005421287734831217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5267796666666668</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H12">
-        <v>1.580339</v>
+        <v>119.085622</v>
       </c>
       <c r="I12">
-        <v>0.005187956523285622</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J12">
-        <v>0.00518795652328562</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>4.578922506736111</v>
+        <v>85.18144261064043</v>
       </c>
       <c r="R12">
-        <v>41.210302560625</v>
+        <v>766.6329834957639</v>
       </c>
       <c r="S12">
-        <v>0.004100754951015311</v>
+        <v>0.07289295524465632</v>
       </c>
       <c r="T12">
-        <v>0.00410075495101531</v>
+        <v>0.07289295524465633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5267796666666668</v>
+        <v>39.69520733333334</v>
       </c>
       <c r="H13">
-        <v>1.580339</v>
+        <v>119.085622</v>
       </c>
       <c r="I13">
-        <v>0.005187956523285622</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="J13">
-        <v>0.00518795652328562</v>
+        <v>0.3386955145474858</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>0.06608240206466666</v>
+        <v>2.497040249039111</v>
       </c>
       <c r="R13">
-        <v>0.594741618582</v>
+        <v>22.473362241352</v>
       </c>
       <c r="S13">
-        <v>5.918155134597992E-05</v>
+        <v>0.00213681099472923</v>
       </c>
       <c r="T13">
-        <v>5.91815513459799E-05</v>
+        <v>0.00213681099472923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H14">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I14">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J14">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>0.04956311849766668</v>
+        <v>2.095645116344</v>
       </c>
       <c r="R14">
-        <v>0.4460680664790001</v>
+        <v>18.860806047096</v>
       </c>
       <c r="S14">
-        <v>4.438734293233116E-05</v>
+        <v>0.001793322125014869</v>
       </c>
       <c r="T14">
-        <v>4.438734293233114E-05</v>
+        <v>0.001793322125014869</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H15">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I15">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J15">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>0.02317953448588889</v>
+        <v>0.035183588728</v>
       </c>
       <c r="R15">
-        <v>0.208615810373</v>
+        <v>0.316652298552</v>
       </c>
       <c r="S15">
-        <v>2.075894288785286E-05</v>
+        <v>3.010791646508388E-05</v>
       </c>
       <c r="T15">
-        <v>2.075894288785286E-05</v>
+        <v>3.010791646508388E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5267796666666668</v>
+        <v>0.280468</v>
       </c>
       <c r="H16">
-        <v>1.580339</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I16">
-        <v>0.005187956523285622</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J16">
-        <v>0.00518795652328562</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>1.075149397971667</v>
+        <v>0.04169493381599999</v>
       </c>
       <c r="R16">
-        <v>9.676344581745001</v>
+        <v>0.375254404344</v>
       </c>
       <c r="S16">
-        <v>0.0009628737351041471</v>
+        <v>3.567991867044225E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009628737351041468</v>
+        <v>3.567991867044226E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1464,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H17">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I17">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J17">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>328.4486887595833</v>
+        <v>0.004476175790666666</v>
       </c>
       <c r="R17">
-        <v>2956.03819883625</v>
+        <v>0.04028558211599999</v>
       </c>
       <c r="S17">
-        <v>0.2941494608401704</v>
+        <v>3.830431506868163E-06</v>
       </c>
       <c r="T17">
-        <v>0.2941494608401702</v>
+        <v>3.830431506868163E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H18">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I18">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J18">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>4.740127896091999</v>
+        <v>0.6018527286053332</v>
       </c>
       <c r="R18">
-        <v>42.661151064828</v>
+        <v>5.416674557447999</v>
       </c>
       <c r="S18">
-        <v>0.004245125989738725</v>
+        <v>0.0005150279528680197</v>
       </c>
       <c r="T18">
-        <v>0.004245125989738723</v>
+        <v>0.0005150279528680197</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.786202</v>
+        <v>0.280468</v>
       </c>
       <c r="H19">
-        <v>113.358606</v>
+        <v>0.8414039999999999</v>
       </c>
       <c r="I19">
-        <v>0.3721350415754244</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="J19">
-        <v>0.3721350415754243</v>
+        <v>0.00239306606403175</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>3.555190387574001</v>
+        <v>0.01764293302933333</v>
       </c>
       <c r="R19">
-        <v>31.99671348816601</v>
+        <v>0.158786397264</v>
       </c>
       <c r="S19">
-        <v>0.003183929092968668</v>
+        <v>1.509771950646698E-05</v>
       </c>
       <c r="T19">
-        <v>0.003183929092968667</v>
+        <v>1.509771950646698E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.786202</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H20">
-        <v>113.358606</v>
+        <v>115.659331</v>
       </c>
       <c r="I20">
-        <v>0.3721350415754244</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J20">
-        <v>0.3721350415754243</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>1.662681055804667</v>
+        <v>288.0672211800327</v>
       </c>
       <c r="R20">
-        <v>14.964129502242</v>
+        <v>2592.604990620294</v>
       </c>
       <c r="S20">
-        <v>0.001489050657992124</v>
+        <v>0.2465099253708303</v>
       </c>
       <c r="T20">
-        <v>0.001489050657992123</v>
+        <v>0.2465099253708303</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.786202</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H21">
-        <v>113.358606</v>
+        <v>115.659331</v>
       </c>
       <c r="I21">
-        <v>0.3721350415754244</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J21">
-        <v>0.3721350415754243</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>77.12107148897</v>
+        <v>4.836333478875334</v>
       </c>
       <c r="R21">
-        <v>694.0896434007301</v>
+        <v>43.527001309878</v>
       </c>
       <c r="S21">
-        <v>0.06906747499455457</v>
+        <v>0.004138631948689912</v>
       </c>
       <c r="T21">
-        <v>0.06906747499455455</v>
+        <v>0.004138631948689912</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H22">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I22">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J22">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>96.74314617687499</v>
+        <v>5.731382488374</v>
       </c>
       <c r="R22">
-        <v>870.6883155918748</v>
+        <v>51.582442395366</v>
       </c>
       <c r="S22">
-        <v>0.08664045636893795</v>
+        <v>0.004904558955695196</v>
       </c>
       <c r="T22">
-        <v>0.08664045636893794</v>
+        <v>0.004904558955695197</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H23">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I23">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J23">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>1.396184249297999</v>
+        <v>0.6152947898832223</v>
       </c>
       <c r="R23">
-        <v>12.565658243682</v>
+        <v>5.537653108949</v>
       </c>
       <c r="S23">
-        <v>0.001250383570461313</v>
+        <v>0.000526530828859494</v>
       </c>
       <c r="T23">
-        <v>0.001250383570461313</v>
+        <v>0.000526530828859494</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,61 +1907,61 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H24">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I24">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J24">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>1.047166011381</v>
+        <v>82.73063112490244</v>
       </c>
       <c r="R24">
-        <v>9.424494102429001</v>
+        <v>744.575680124122</v>
       </c>
       <c r="S24">
-        <v>0.0009378125966072546</v>
+        <v>0.07079570393653309</v>
       </c>
       <c r="T24">
-        <v>0.0009378125966072543</v>
+        <v>0.0707957039365331</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.129763</v>
+        <v>38.55311033333334</v>
       </c>
       <c r="H25">
-        <v>33.389289</v>
+        <v>115.659331</v>
       </c>
       <c r="I25">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="J25">
-        <v>0.1096107731793108</v>
+        <v>0.3289506824363984</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>0.4897355414469999</v>
+        <v>2.425196256555111</v>
       </c>
       <c r="R25">
-        <v>4.407619873022999</v>
+        <v>21.826766308996</v>
       </c>
       <c r="S25">
-        <v>0.0004385934558452419</v>
+        <v>0.002075331395790394</v>
       </c>
       <c r="T25">
-        <v>0.0004385934558452418</v>
+        <v>0.002075331395790394</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,55 +2022,365 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H26">
+        <v>28.284435</v>
+      </c>
+      <c r="I26">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J26">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N26">
+        <v>22.415874</v>
+      </c>
+      <c r="O26">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P26">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q26">
+        <v>70.44670345791002</v>
+      </c>
+      <c r="R26">
+        <v>634.0203311211901</v>
+      </c>
+      <c r="S26">
+        <v>0.06028388631269276</v>
+      </c>
+      <c r="T26">
+        <v>0.06028388631269276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H27">
+        <v>28.284435</v>
+      </c>
+      <c r="I27">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J27">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.125446</v>
+      </c>
+      <c r="N27">
+        <v>0.376338</v>
+      </c>
+      <c r="O27">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P27">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q27">
+        <v>1.18272307767</v>
+      </c>
+      <c r="R27">
+        <v>10.64450769903</v>
+      </c>
+      <c r="S27">
+        <v>0.001012100496601032</v>
+      </c>
+      <c r="T27">
+        <v>0.001012100496601032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H28">
+        <v>28.284435</v>
+      </c>
+      <c r="I28">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J28">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.148662</v>
+      </c>
+      <c r="N28">
+        <v>0.445986</v>
+      </c>
+      <c r="O28">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P28">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q28">
+        <v>1.40160689199</v>
+      </c>
+      <c r="R28">
+        <v>12.61446202791</v>
+      </c>
+      <c r="S28">
+        <v>0.001199407585938991</v>
+      </c>
+      <c r="T28">
+        <v>0.001199407585938991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H29">
+        <v>28.284435</v>
+      </c>
+      <c r="I29">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J29">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.047879</v>
+      </c>
+      <c r="O29">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P29">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q29">
+        <v>0.150470051485</v>
+      </c>
+      <c r="R29">
+        <v>1.354230463365</v>
+      </c>
+      <c r="S29">
+        <v>0.0001287628665634637</v>
+      </c>
+      <c r="T29">
+        <v>0.0001287628665634637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>11.129763</v>
-      </c>
-      <c r="H26">
-        <v>33.389289</v>
-      </c>
-      <c r="I26">
-        <v>0.1096107731793108</v>
-      </c>
-      <c r="J26">
-        <v>0.1096107731793108</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.040985</v>
-      </c>
-      <c r="N26">
-        <v>6.122955</v>
-      </c>
-      <c r="O26">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P26">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q26">
-        <v>22.715679336555</v>
-      </c>
-      <c r="R26">
-        <v>204.441114028995</v>
-      </c>
-      <c r="S26">
-        <v>0.02034352718745902</v>
-      </c>
-      <c r="T26">
-        <v>0.02034352718745902</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H30">
+        <v>28.284435</v>
+      </c>
+      <c r="I30">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J30">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N30">
+        <v>6.437662</v>
+      </c>
+      <c r="O30">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P30">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q30">
+        <v>20.23173693233</v>
+      </c>
+      <c r="R30">
+        <v>182.08563239097</v>
+      </c>
+      <c r="S30">
+        <v>0.01731305610156187</v>
+      </c>
+      <c r="T30">
+        <v>0.01731305610156188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.428145000000001</v>
+      </c>
+      <c r="H31">
+        <v>28.284435</v>
+      </c>
+      <c r="I31">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="J31">
+        <v>0.08044473468014399</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>0.59308060394</v>
+      </c>
+      <c r="R31">
+        <v>5.33772543546</v>
+      </c>
+      <c r="S31">
+        <v>0.0005075213167858689</v>
+      </c>
+      <c r="T31">
+        <v>0.0005075213167858689</v>
       </c>
     </row>
   </sheetData>
